--- a/municipal/ENG/Population census/Median age of population/Khoni.xlsx
+++ b/municipal/ENG/Population census/Median age of population/Khoni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\Tamunas cxrilebi\inglisuri\cx 25 - eng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.139\d$\xampp\htdocs\regions\municipal\ENG\Population census\Median age of population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94CAFA7-4DA3-43FB-8586-B5D6430C6C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2D0E27-7974-4B33-BA82-91F5732620A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14970" yWindow="975" windowWidth="12360" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     </r>
   </si>
   <si>
-    <t>Median age by urban-rural settlements and sex in the municipality of Khobi</t>
-  </si>
-  <si>
     <t>Both sexes</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Females</t>
+  </si>
+  <si>
+    <t>Median age by urban-rural settlements and sex in the municipality of Khoni</t>
   </si>
 </sst>
 </file>
@@ -688,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -704,13 +704,13 @@
     <row r="4" spans="1:4" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
